--- a/medicine/Sexualité et sexologie/You_Are_My_High/You_Are_My_High.xlsx
+++ b/medicine/Sexualité et sexologie/You_Are_My_High/You_Are_My_High.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">You Are My High est une chanson du musicien house français Demon sortie en 2000 sous la major Sony. 
-La chanson est créditée Heartbreaker et Demon, mais Demon révèle en 2018 qu'Heartbreaker n'existait pas[1]. Le morceau est construit à partir d'un sample du morceau "You Are My High" du groupe américain The Gap Band[2]. 
+La chanson est créditée Heartbreaker et Demon, mais Demon révèle en 2018 qu'Heartbreaker n'existait pas. Le morceau est construit à partir d'un sample du morceau "You Are My High" du groupe américain The Gap Band. 
 Le single se classe dans 4 hit-parades de pays différents : en France, en Suisse, aux Pays-Bas et en Belgique (Flandre et Wallonie).
 </t>
         </is>
@@ -513,9 +525,11 @@
           <t>Clip vidéo</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le clip musical représente un homme et une femme qui s'embrassent pendant toute la longueur du clip soit environ 2 minutes 30. La femme est jouée par Draghixa Laurent[3],[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le clip musical représente un homme et une femme qui s'embrassent pendant toute la longueur du clip soit environ 2 minutes 30. La femme est jouée par Draghixa Laurent,.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Liste des pistes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>CD-Maxi 2000
 You Are My High - 3:47
@@ -577,6 +593,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,7 +620,9 @@
           <t>Cinéma</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La chanson est utilisée dans le film français Play (2019) ainsi que dans sa bande-annonce.
 </t>
